--- a/data/MetalliCan/pre_cleaned_data/land_table_mining.xlsx
+++ b/data/MetalliCan/pre_cleaned_data/land_table_mining.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="276">
   <si>
     <t>main_id</t>
   </si>
   <si>
-    <t>area_km2</t>
-  </si>
-  <si>
     <t>facility_group_id</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
     <t>commodities</t>
   </si>
   <si>
+    <t>operation_periods</t>
+  </si>
+  <si>
     <t>area_m2</t>
   </si>
   <si>
@@ -637,6 +637,15 @@
     <t>Open-pit, underground</t>
   </si>
   <si>
+    <t>Underground, Open-pit</t>
+  </si>
+  <si>
+    <t>Concentrator, Underground</t>
+  </si>
+  <si>
+    <t>Underground, Concentrator</t>
+  </si>
+  <si>
     <t>Zinc, copper, silver, gold, lead</t>
   </si>
   <si>
@@ -725,6 +734,114 @@
   </si>
   <si>
     <t>Silver, zinc, lead</t>
+  </si>
+  <si>
+    <t>Nickel, copper, platinum group metals, gold, cobalt, silver, selenium, tellurium</t>
+  </si>
+  <si>
+    <t>1966–1985; 2002–2015; 2019–open</t>
+  </si>
+  <si>
+    <t>1884–1958; 2011–open</t>
+  </si>
+  <si>
+    <t>1972–1998; 2004–open</t>
+  </si>
+  <si>
+    <t>2015–open</t>
+  </si>
+  <si>
+    <t>2012–open</t>
+  </si>
+  <si>
+    <t>2014–open</t>
+  </si>
+  <si>
+    <t>2013–open</t>
+  </si>
+  <si>
+    <t>1949–2000; 2021–open</t>
+  </si>
+  <si>
+    <t>2005–open</t>
+  </si>
+  <si>
+    <t>2017–open</t>
+  </si>
+  <si>
+    <t>1997–open</t>
+  </si>
+  <si>
+    <t>2010–open</t>
+  </si>
+  <si>
+    <t>1933–1999; 2002–open</t>
+  </si>
+  <si>
+    <t>1962–1991; 2007–2009; 2010–open</t>
+  </si>
+  <si>
+    <t>2009–open</t>
+  </si>
+  <si>
+    <t>1941–1949; 1983–open</t>
+  </si>
+  <si>
+    <t>1985–open</t>
+  </si>
+  <si>
+    <t>1917–1957; 2010–open</t>
+  </si>
+  <si>
+    <t>1949–open</t>
+  </si>
+  <si>
+    <t>1993–2008; 2010–open</t>
+  </si>
+  <si>
+    <t>1983–open</t>
+  </si>
+  <si>
+    <t>2002–open</t>
+  </si>
+  <si>
+    <t>2011–open</t>
+  </si>
+  <si>
+    <t>1963–open</t>
+  </si>
+  <si>
+    <t>1976–open</t>
+  </si>
+  <si>
+    <t>2016–open</t>
+  </si>
+  <si>
+    <t>1936–1996; 2005–2013; 2021–open</t>
+  </si>
+  <si>
+    <t>1998–open</t>
+  </si>
+  <si>
+    <t>1988–1991; 1993–open</t>
+  </si>
+  <si>
+    <t>2008–2011; 2013–open</t>
+  </si>
+  <si>
+    <t>1956–1959; 1974–1975; 1988–open</t>
+  </si>
+  <si>
+    <t>1988–open</t>
+  </si>
+  <si>
+    <t>1935–1965; 2011–open</t>
+  </si>
+  <si>
+    <t>1948–open</t>
+  </si>
+  <si>
+    <t>2013–open, 1949–2000; 2021–open</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1124,23 +1241,23 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>1.49968986541</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>98</v>
       </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="J2">
         <v>1499689.86541</v>
@@ -1150,23 +1267,20 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>7.967834637559999</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J3">
         <v>7967834.63756</v>
@@ -1176,23 +1290,20 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.4167368603415594</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>100</v>
       </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J4">
         <v>416736.8603415595</v>
@@ -1202,23 +1313,23 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>13.2332103886</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>101</v>
       </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="J5">
         <v>13233210.3886</v>
@@ -1228,23 +1339,23 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>22.5279986785</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>102</v>
       </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="J6">
         <v>22527998.6785</v>
@@ -1254,23 +1365,23 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>11.5316465435</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>103</v>
       </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
       <c r="F7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="J7">
         <v>11531646.5435</v>
@@ -1280,23 +1391,23 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>4.95045991493</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>104</v>
       </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="J8">
         <v>4950459.91493</v>
@@ -1306,23 +1417,20 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>63.9242598049</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>105</v>
       </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J9">
         <v>63924259.8049</v>
@@ -1332,23 +1440,23 @@
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>12.6067864826</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>106</v>
       </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="J10">
         <v>12606786.4826</v>
@@ -1358,29 +1466,26 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>0.3300033338055482</v>
+      <c r="B11" t="s">
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H11" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J11">
         <v>330003.3338055482</v>
@@ -1390,23 +1495,20 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>1.058100092748948</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>108</v>
       </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H12" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J12">
         <v>1058100.092748948</v>
@@ -1416,29 +1518,29 @@
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
-        <v>0.363438296974</v>
+      <c r="B13" t="s">
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="J13">
         <v>363438.296974</v>
@@ -1448,29 +1550,29 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>2.410689221736038</v>
+      <c r="B14" t="s">
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F14" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H14" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="J14">
         <v>2410689.221736038</v>
@@ -1480,23 +1582,20 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
-        <v>7.481998483051093</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J15">
         <v>7481998.483051093</v>
@@ -1506,23 +1605,23 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16">
-        <v>4.78901403756</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>112</v>
       </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H16" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="J16">
         <v>4789014.03756</v>
@@ -1532,23 +1631,20 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>0.16325462437129</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>113</v>
       </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H17" t="s">
-        <v>201</v>
-      </c>
-      <c r="I17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J17">
         <v>163254.62437129</v>
@@ -1558,23 +1654,20 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
-        <v>10.5721885661376</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>114</v>
       </c>
+      <c r="E18" t="s">
+        <v>188</v>
+      </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J18">
         <v>10572188.5661376</v>
@@ -1584,23 +1677,20 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19">
-        <v>1.510729369309124</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>115</v>
       </c>
+      <c r="E19" t="s">
+        <v>188</v>
+      </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H19" t="s">
-        <v>197</v>
-      </c>
-      <c r="I19" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J19">
         <v>1510729.369309124</v>
@@ -1610,23 +1700,20 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
-        <v>26.10464881795129</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>116</v>
       </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
-      </c>
-      <c r="I20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J20">
         <v>26104648.81795129</v>
@@ -1636,29 +1723,26 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>10.34079584070311</v>
+      <c r="B21" t="s">
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H21" t="s">
-        <v>199</v>
-      </c>
-      <c r="I21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J21">
         <v>10340795.84070311</v>
@@ -1668,23 +1752,20 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
-        <v>4.354811166996506</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J22">
         <v>4354811.166996506</v>
@@ -1694,23 +1775,23 @@
       <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
-        <v>3.064668693174671</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H23" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="J23">
         <v>3064668.693174671</v>
@@ -1720,23 +1801,20 @@
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
-        <v>9.992991568656315</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H24" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J24">
         <v>9992991.568656314</v>
@@ -1746,23 +1824,23 @@
       <c r="A25" t="s">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>16.82681756129609</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>121</v>
       </c>
+      <c r="E25" t="s">
+        <v>190</v>
+      </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="J25">
         <v>16826817.56129609</v>
@@ -1772,23 +1850,23 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
-        <v>0.1269627450922684</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>122</v>
       </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="I26" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="J26">
         <v>126962.7450922684</v>
@@ -1798,29 +1876,29 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27">
-        <v>7.644288851632554</v>
+      <c r="B27" t="s">
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="J27">
         <v>7644288.851632554</v>
@@ -1830,23 +1908,23 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28">
-        <v>22.78972343693621</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>124</v>
       </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="J28">
         <v>22789723.43693621</v>
@@ -1856,23 +1934,23 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
-        <v>5.804864894492002</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>125</v>
       </c>
+      <c r="E29" t="s">
+        <v>192</v>
+      </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J29">
         <v>5804864.894492002</v>
@@ -1882,29 +1960,29 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30">
-        <v>1.760913595839669</v>
+      <c r="B30" t="s">
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="I30" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="J30">
         <v>1760913.595839669</v>
@@ -1914,29 +1992,29 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31">
-        <v>0.5592412641449784</v>
+      <c r="B31" t="s">
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E31" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J31">
         <v>559241.2641449785</v>
@@ -1946,23 +2024,20 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32">
-        <v>3.512631992361845</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>128</v>
       </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>201</v>
-      </c>
-      <c r="I32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J32">
         <v>3512631.992361845</v>
@@ -1972,29 +2047,26 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
-        <v>2.161806090909503</v>
+      <c r="B33" t="s">
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J33">
         <v>2161806.090909503</v>
@@ -2004,23 +2076,23 @@
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34">
-        <v>7.405086228542091</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>130</v>
       </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="J34">
         <v>7405086.228542091</v>
@@ -2030,29 +2102,26 @@
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35">
-        <v>1.929968176370687</v>
+      <c r="B35" t="s">
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H35" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J35">
         <v>1929968.176370687</v>
@@ -2062,29 +2131,29 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36">
-        <v>15.42802065126922</v>
+      <c r="B36" t="s">
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="J36">
         <v>15428020.65126922</v>
@@ -2094,29 +2163,26 @@
       <c r="A37" t="s">
         <v>45</v>
       </c>
-      <c r="B37">
-        <v>0.1108038657774448</v>
+      <c r="B37" t="s">
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J37">
         <v>110803.8657774448</v>
@@ -2126,23 +2192,23 @@
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38">
-        <v>3.503071061728495</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>134</v>
       </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
       <c r="F38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="J38">
         <v>3503071.061728495</v>
@@ -2152,23 +2218,20 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39">
-        <v>0.989146072414</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>135</v>
       </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H39" t="s">
-        <v>197</v>
-      </c>
-      <c r="I39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J39">
         <v>989146.0724139999</v>
@@ -2178,23 +2241,23 @@
       <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40">
-        <v>1.87419045757726</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>136</v>
       </c>
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="J40">
         <v>1874190.45757726</v>
@@ -2204,23 +2267,23 @@
       <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41">
-        <v>6.13937849533</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>137</v>
       </c>
+      <c r="E41" t="s">
+        <v>192</v>
+      </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H41" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="J41">
         <v>6139378.49533</v>
@@ -2230,29 +2293,26 @@
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42">
-        <v>1.141145864636208</v>
+      <c r="B42" t="s">
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H42" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J42">
         <v>1141145.864636208</v>
@@ -2262,23 +2322,20 @@
       <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43">
-        <v>0.2404687055894923</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>139</v>
       </c>
+      <c r="E43" t="s">
+        <v>192</v>
+      </c>
       <c r="F43" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H43" t="s">
-        <v>198</v>
-      </c>
-      <c r="I43" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J43">
         <v>240468.7055894923</v>
@@ -2288,23 +2345,23 @@
       <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>8.409093126590001</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>140</v>
       </c>
+      <c r="E44" t="s">
+        <v>192</v>
+      </c>
       <c r="F44" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H44" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="I44" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="J44">
         <v>8409093.12659</v>
@@ -2314,23 +2371,23 @@
       <c r="A45" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>10.27696710066929</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>141</v>
       </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
       <c r="F45" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="J45">
         <v>10276967.10066929</v>
@@ -2340,23 +2397,23 @@
       <c r="A46" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.9486779026767507</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>142</v>
       </c>
+      <c r="E46" t="s">
+        <v>192</v>
+      </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="J46">
         <v>948677.9026767507</v>
@@ -2366,23 +2423,23 @@
       <c r="A47" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.3528845737495345</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>143</v>
       </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
       <c r="F47" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="J47">
         <v>352884.5737495346</v>
@@ -2392,29 +2449,26 @@
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>3.063892805082795</v>
+      <c r="B48" t="s">
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
-      </c>
-      <c r="I48" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J48">
         <v>3063892.805082795</v>
@@ -2424,29 +2478,29 @@
       <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>1.039802195699128</v>
+      <c r="B49" t="s">
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G49" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="J49">
         <v>1039802.195699128</v>
@@ -2456,29 +2510,26 @@
       <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>21.5912494628</v>
+      <c r="B50" t="s">
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>197</v>
-      </c>
-      <c r="I50" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J50">
         <v>21591249.4628</v>
@@ -2488,29 +2539,29 @@
       <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>1.464485501369824</v>
+      <c r="B51" t="s">
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="J51">
         <v>1464485.501369824</v>
@@ -2520,23 +2571,23 @@
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>4.2022535386</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>148</v>
       </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
       <c r="F52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H52" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="I52" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="J52">
         <v>4202253.5386</v>
@@ -2546,29 +2597,26 @@
       <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
-        <v>1.788407819274</v>
+      <c r="B53" t="s">
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E53" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
-        <v>197</v>
-      </c>
-      <c r="I53" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="J53">
         <v>1788407.819274</v>
@@ -2578,23 +2626,23 @@
       <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
-        <v>1.550354452950391</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>150</v>
       </c>
+      <c r="E54" t="s">
+        <v>192</v>
+      </c>
       <c r="F54" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H54" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I54" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="J54">
         <v>1550354.452950391</v>
@@ -2604,23 +2652,23 @@
       <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="B55">
-        <v>7.24914717667</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>151</v>
       </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H55" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I55" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J55">
         <v>7249147.17667</v>
@@ -2630,29 +2678,29 @@
       <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="B56">
-        <v>24.97292013211027</v>
+      <c r="B56" t="s">
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="I56" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="J56">
         <v>24972920.13211028</v>
@@ -2662,23 +2710,20 @@
       <c r="A57" t="s">
         <v>65</v>
       </c>
-      <c r="B57">
-        <v>15.70268760491092</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>153</v>
       </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
       <c r="F57" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
-      </c>
-      <c r="I57" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J57">
         <v>15702687.60491092</v>
@@ -2688,23 +2733,23 @@
       <c r="A58" t="s">
         <v>66</v>
       </c>
-      <c r="B58">
-        <v>0.2807233006520429</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>154</v>
       </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I58" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="J58">
         <v>280723.3006520429</v>
@@ -2714,29 +2759,26 @@
       <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B59">
-        <v>3.714363081590083</v>
+      <c r="B59" t="s">
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F59" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H59" t="s">
-        <v>199</v>
-      </c>
-      <c r="I59" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J59">
         <v>3714363.081590083</v>
@@ -2746,23 +2788,23 @@
       <c r="A60" t="s">
         <v>68</v>
       </c>
-      <c r="B60">
-        <v>1.445491925339854</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>156</v>
       </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
       <c r="F60" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H60" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="I60" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="J60">
         <v>1445491.925339854</v>
@@ -2772,23 +2814,23 @@
       <c r="A61" t="s">
         <v>69</v>
       </c>
-      <c r="B61">
-        <v>3.436361112865424</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>157</v>
       </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
       <c r="F61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="J61">
         <v>3436361.112865424</v>
@@ -2798,23 +2840,23 @@
       <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="B62">
-        <v>2.323252926769045</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>158</v>
       </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H62" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="I62" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="J62">
         <v>2323252.926769045</v>
@@ -2824,23 +2866,23 @@
       <c r="A63" t="s">
         <v>71</v>
       </c>
-      <c r="B63">
-        <v>2.475749772500532</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>159</v>
       </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
       <c r="F63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H63" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="I63" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="J63">
         <v>2475749.772500532</v>
@@ -2850,23 +2892,23 @@
       <c r="A64" t="s">
         <v>72</v>
       </c>
-      <c r="B64">
-        <v>6.20289701714</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>160</v>
       </c>
+      <c r="E64" t="s">
+        <v>193</v>
+      </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="I64" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="J64">
         <v>6202897.01714</v>
@@ -2876,23 +2918,23 @@
       <c r="A65" t="s">
         <v>73</v>
       </c>
-      <c r="B65">
-        <v>1.34183517078</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>161</v>
       </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
       <c r="F65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I65" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="J65">
         <v>1341835.17078</v>
@@ -2902,23 +2944,23 @@
       <c r="A66" t="s">
         <v>74</v>
       </c>
-      <c r="B66">
-        <v>1.11351659973</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>162</v>
       </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
       <c r="F66" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H66" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="I66" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="J66">
         <v>1113516.59973</v>
@@ -2928,23 +2970,20 @@
       <c r="A67" t="s">
         <v>75</v>
       </c>
-      <c r="B67">
-        <v>2.689687063009932</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>163</v>
       </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J67">
         <v>2689687.063009932</v>
@@ -2954,23 +2993,23 @@
       <c r="A68" t="s">
         <v>76</v>
       </c>
-      <c r="B68">
-        <v>5.574423981285</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>164</v>
       </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H68" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="I68" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="J68">
         <v>5574423.981285</v>
@@ -2980,23 +3019,23 @@
       <c r="A69" t="s">
         <v>77</v>
       </c>
-      <c r="B69">
-        <v>19.0287184515658</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>165</v>
       </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="I69" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="J69">
         <v>19028718.4515658</v>
@@ -3006,29 +3045,29 @@
       <c r="A70" t="s">
         <v>78</v>
       </c>
-      <c r="B70">
-        <v>2.3310987137657</v>
+      <c r="B70" t="s">
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H70" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="I70" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="J70">
         <v>2331098.7137657</v>
@@ -3038,23 +3077,20 @@
       <c r="A71" t="s">
         <v>79</v>
       </c>
-      <c r="B71">
-        <v>11.90407993924279</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>167</v>
       </c>
+      <c r="E71" t="s">
+        <v>193</v>
+      </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H71" t="s">
-        <v>200</v>
-      </c>
-      <c r="I71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J71">
         <v>11904079.93924279</v>
@@ -3064,29 +3100,26 @@
       <c r="A72" t="s">
         <v>80</v>
       </c>
-      <c r="B72">
-        <v>0.5170039912403153</v>
+      <c r="B72" t="s">
+        <v>96</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H72" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J72">
         <v>517003.9912403153</v>
@@ -3096,23 +3129,20 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73">
-        <v>4.412887439581323</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>169</v>
       </c>
+      <c r="E73" t="s">
+        <v>194</v>
+      </c>
       <c r="F73" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H73" t="s">
-        <v>201</v>
-      </c>
-      <c r="I73" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J73">
         <v>4412887.439581322</v>
@@ -3122,23 +3152,23 @@
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74">
-        <v>1.600590119251436</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>170</v>
       </c>
+      <c r="E74" t="s">
+        <v>194</v>
+      </c>
       <c r="F74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H74" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="J74">
         <v>1600590.119251437</v>
@@ -3148,29 +3178,26 @@
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75">
-        <v>10.23564718904726</v>
+      <c r="B75" t="s">
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G75" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H75" t="s">
-        <v>201</v>
-      </c>
-      <c r="I75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J75">
         <v>10235647.18904726</v>
@@ -3180,29 +3207,26 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76">
-        <v>1.973892455465505</v>
+      <c r="B76" t="s">
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E76" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
-      </c>
-      <c r="I76" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="J76">
         <v>1973892.455465505</v>
@@ -3212,23 +3236,20 @@
       <c r="A77" t="s">
         <v>85</v>
       </c>
-      <c r="B77">
-        <v>5.293594021862885</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>173</v>
       </c>
+      <c r="E77" t="s">
+        <v>195</v>
+      </c>
       <c r="F77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>200</v>
-      </c>
-      <c r="I77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J77">
         <v>5293594.021862885</v>
@@ -3238,26 +3259,267 @@
       <c r="A78" t="s">
         <v>86</v>
       </c>
-      <c r="B78">
-        <v>3.41867616080696</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>174</v>
       </c>
+      <c r="E78" t="s">
+        <v>195</v>
+      </c>
       <c r="F78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G78" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>203</v>
-      </c>
-      <c r="I78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J78">
         <v>3418676.16080696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>191</v>
+      </c>
+      <c r="F79" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" t="s">
+        <v>201</v>
+      </c>
+      <c r="H79" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" t="s">
+        <v>252</v>
+      </c>
+      <c r="J79">
+        <v>7644288.851632554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" t="s">
+        <v>207</v>
+      </c>
+      <c r="H80" t="s">
+        <v>212</v>
+      </c>
+      <c r="I80" t="s">
+        <v>256</v>
+      </c>
+      <c r="J80">
+        <v>16569166.51590542</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" t="s">
+        <v>193</v>
+      </c>
+      <c r="F81" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" t="s">
+        <v>223</v>
+      </c>
+      <c r="I81" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81">
+        <v>28687283.21370036</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" t="s">
+        <v>192</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" t="s">
+        <v>212</v>
+      </c>
+      <c r="I82" t="s">
+        <v>263</v>
+      </c>
+      <c r="J82">
+        <v>1464485.501369824</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" t="s">
+        <v>194</v>
+      </c>
+      <c r="F83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83" t="s">
+        <v>212</v>
+      </c>
+      <c r="J83">
+        <v>517003.9912403153</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84">
+        <v>12209539.64451277</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" t="s">
+        <v>199</v>
+      </c>
+      <c r="H85" t="s">
+        <v>237</v>
+      </c>
+      <c r="I85" t="s">
+        <v>274</v>
+      </c>
+      <c r="J85">
+        <v>2331098.7137657</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" t="s">
+        <v>199</v>
+      </c>
+      <c r="H86" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86">
+        <v>10340795.84070311</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" t="s">
+        <v>187</v>
+      </c>
+      <c r="F87" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87" t="s">
+        <v>208</v>
+      </c>
+      <c r="H87" t="s">
+        <v>218</v>
+      </c>
+      <c r="I87" t="s">
+        <v>275</v>
+      </c>
+      <c r="J87">
+        <v>3104130.852515586</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F88" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" t="s">
+        <v>209</v>
+      </c>
+      <c r="H88" t="s">
+        <v>228</v>
+      </c>
+      <c r="I88" t="s">
+        <v>246</v>
+      </c>
+      <c r="J88">
+        <v>29416961.66508541</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" t="s">
+        <v>240</v>
+      </c>
+      <c r="I89" t="s">
+        <v>254</v>
+      </c>
+      <c r="J89">
+        <v>4589123.610812797</v>
       </c>
     </row>
   </sheetData>
